--- a/results/pvalue_SIDER_all_target_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_target_AUPR+AUROC.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.121</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>20.051</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.004</t>
+          <t>16.666</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.689</t>
+          <t>13.662</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>34.904</t>
+          <t>35.168</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>39.806</t>
+          <t>40.143</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.827</t>
+          <t>33.897</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>27.259</t>
+          <t>27.442</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.293</t>
+          <t>25.768</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
